--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>263112.0747111872</v>
+        <v>255097.0993330304</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18249983.41937634</v>
+        <v>18249983.41937636</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129928</v>
+        <v>3650026.315129926</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6938945.775746509</v>
+        <v>6882707.493838102</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>385.2897532878176</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>203.5071608183927</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>3.139541480022511</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>2.008513159455165</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>245.0744173459532</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>104.9443951297481</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1066,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>50.38971918733571</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>264.4599101774942</v>
+        <v>26.823794458348</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1342,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U10" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1376,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>235.972926627843</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.77478224577128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>130.6767931660343</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>158.1026577780532</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>127.1100078938263</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225757</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1847,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>75.69992417918321</v>
+        <v>305.1364706193654</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2014,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>35.16791248334784</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.05677735225758</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>56.95997704284581</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>140.4342819615944</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2810,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>43.48898701015855</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135472</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3673,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>123.2901323038659</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>141.3663157399029</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>79.58540461744364</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>163.6395778340019</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1355.320903761553</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="C2" t="n">
-        <v>917.1784309449763</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D2" t="n">
-        <v>481.2686461194208</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194208</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112559</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739146</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1355.320903761553</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X2" t="n">
-        <v>1355.320903761553</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y2" t="n">
-        <v>1355.320903761553</v>
+        <v>1640.500119716325</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4403,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>1038.799596036619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870971</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F4" t="n">
-        <v>56.57247054885332</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1419.763337936864</v>
+        <v>448.5358106104104</v>
       </c>
       <c r="C5" t="n">
-        <v>1419.763337936864</v>
+        <v>448.5358106104104</v>
       </c>
       <c r="D5" t="n">
-        <v>1419.763337936864</v>
+        <v>448.5358106104104</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.213421425801</v>
+        <v>448.5358106104104</v>
       </c>
       <c r="F5" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M5" t="n">
-        <v>1375.081325612185</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N5" t="n">
-        <v>2035.921380153963</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O5" t="n">
-        <v>2670.060826431428</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2582.420166112559</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1702.263968216354</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1283.121504795665</v>
       </c>
       <c r="Y5" t="n">
-        <v>1846.062908421772</v>
+        <v>874.8353810953182</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>871.2377163984103</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>871.2377163984103</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>705.359723599933</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>535.6017198506702</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2619.162120181594</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2373.282673760049</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2094.849673013155</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1807.894164883585</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1535.867760469877</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1290.476005803289</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1063.056335117397</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>771.4407337121276</v>
       </c>
       <c r="C8" t="n">
-        <v>1011.477214236518</v>
+        <v>771.4407337121276</v>
       </c>
       <c r="D8" t="n">
-        <v>1011.477214236518</v>
+        <v>771.4407337121276</v>
       </c>
       <c r="E8" t="n">
-        <v>1011.477214236518</v>
+        <v>771.4407337121276</v>
       </c>
       <c r="F8" t="n">
         <v>744.3459918350084</v>
@@ -4796,10 +4798,10 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4808,46 +4810,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1598.869320833164</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>771.4407337121276</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L9" t="n">
-        <v>1175.902039375362</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M9" t="n">
-        <v>1175.902039375362</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N9" t="n">
-        <v>1175.902039375362</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O9" t="n">
-        <v>1175.902039375362</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4954,10 +4956,10 @@
         <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4990,7 +4992,7 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
         <v>2267.41138452993</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1752.351007163417</v>
+        <v>1607.706416878496</v>
       </c>
       <c r="C11" t="n">
-        <v>1752.351007163417</v>
+        <v>1607.706416878496</v>
       </c>
       <c r="D11" t="n">
-        <v>1316.441222337862</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="E11" t="n">
-        <v>882.6664774961569</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F11" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J11" t="n">
         <v>488.6559039815464</v>
@@ -5045,22 +5047,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M11" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N11" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O11" t="n">
-        <v>1293.567921177998</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="P11" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q11" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5072,19 +5074,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2431.704334888153</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>2431.704334888153</v>
       </c>
       <c r="W11" t="n">
-        <v>2265.205371842461</v>
+        <v>2026.848880299186</v>
       </c>
       <c r="X11" t="n">
-        <v>1846.062908421772</v>
+        <v>1607.706416878496</v>
       </c>
       <c r="Y11" t="n">
-        <v>1752.351007163417</v>
+        <v>1607.706416878496</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I12" t="n">
-        <v>73.33088177303154</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J12" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K12" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L12" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M12" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N12" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P12" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q12" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R12" t="n">
         <v>1716.640978007438</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C13" t="n">
-        <v>731.3355420887848</v>
+        <v>790.1396618744722</v>
       </c>
       <c r="D13" t="n">
-        <v>565.4575492903075</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E13" t="n">
-        <v>395.6995455410447</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F13" t="n">
-        <v>218.9924915028009</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H13" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5224,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V13" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W13" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X13" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y13" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1075.159834655251</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="C14" t="n">
-        <v>1075.159834655251</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="D14" t="n">
-        <v>915.4601803339856</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="E14" t="n">
-        <v>481.6854354922808</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F14" t="n">
-        <v>53.81800590148855</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J14" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L14" t="n">
-        <v>1293.567921177998</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M14" t="n">
-        <v>1293.567921177998</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N14" t="n">
-        <v>1293.567921177998</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="P14" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="Q14" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112559</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5312,16 +5314,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>2307.443876365254</v>
+        <v>2541.666879063927</v>
       </c>
       <c r="W14" t="n">
-        <v>1902.588421776288</v>
+        <v>2136.81142447496</v>
       </c>
       <c r="X14" t="n">
-        <v>1483.445958355598</v>
+        <v>1717.668961054271</v>
       </c>
       <c r="Y14" t="n">
-        <v>1075.159834655251</v>
+        <v>1309.382837353925</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K15" t="n">
-        <v>1058.729261281022</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.729261281022</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.729261281022</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="N15" t="n">
-        <v>1058.729261281022</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="O15" t="n">
-        <v>1058.729261281022</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="P15" t="n">
-        <v>1058.729261281022</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="Q15" t="n">
         <v>1599.468199913098</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.1364226482442</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C16" t="n">
-        <v>749.5747111314691</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D16" t="n">
-        <v>583.6967183329918</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E16" t="n">
-        <v>413.9387145837291</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F16" t="n">
-        <v>237.2316605454853</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G16" t="n">
-        <v>71.64038557131298</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H16" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5467,19 +5469,19 @@
         <v>2424.181380009883</v>
       </c>
       <c r="U16" t="n">
-        <v>2145.748379262989</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V16" t="n">
-        <v>1858.792871133419</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W16" t="n">
-        <v>1586.766466719711</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X16" t="n">
-        <v>1341.374712053123</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.955041367231</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>991.5079608390885</v>
+        <v>1480.015289244219</v>
       </c>
       <c r="C17" t="n">
-        <v>991.5079608390885</v>
+        <v>1480.015289244219</v>
       </c>
       <c r="D17" t="n">
-        <v>915.0433909611256</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="E17" t="n">
-        <v>481.2686461194208</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K17" t="n">
-        <v>53.40121652862856</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L17" t="n">
-        <v>687.540662806093</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="M17" t="n">
-        <v>1348.380717347871</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N17" t="n">
+        <v>1375.081325612186</v>
+      </c>
+      <c r="O17" t="n">
         <v>2009.22077188965</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2670.060826431428</v>
       </c>
       <c r="P17" t="n">
         <v>2670.060826431428</v>
@@ -5540,25 +5542,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U17" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V17" t="n">
-        <v>2223.792002549091</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W17" t="n">
-        <v>1818.936547960124</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="X17" t="n">
-        <v>1399.794084539435</v>
+        <v>1888.301412944566</v>
       </c>
       <c r="Y17" t="n">
-        <v>991.5079608390885</v>
+        <v>1480.015289244219</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I18" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J18" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K18" t="n">
-        <v>1064.863269197077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L18" t="n">
-        <v>1064.863269197077</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M18" t="n">
-        <v>1064.863269197077</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="N18" t="n">
-        <v>1064.863269197077</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O18" t="n">
-        <v>1064.863269197077</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P18" t="n">
-        <v>1064.863269197077</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q18" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.1364226482442</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C19" t="n">
-        <v>749.5747111314691</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D19" t="n">
-        <v>583.6967183329918</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E19" t="n">
-        <v>413.9387145837291</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F19" t="n">
-        <v>237.2316605454853</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G19" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5695,28 +5697,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U19" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V19" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W19" t="n">
-        <v>1586.766466719711</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X19" t="n">
-        <v>1341.374712053123</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.955041367231</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>3205.876241053794</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>3148.340910707485</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>3148.340910707485</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>2978.582906958223</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>2801.875852919979</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>2636.284577945807</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>4953.800644836977</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>4707.921198415433</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>4429.488197668538</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>4142.532689538969</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>3870.506285125261</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>3625.114530458673</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>3397.694859772781</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6217,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H26" t="n">
         <v>102.6776296436396</v>
@@ -6227,28 +6229,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
         <v>5029.390139722817</v>
@@ -6315,13 +6317,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
         <v>102.6776296436396</v>
@@ -6707,22 +6709,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6780,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6928,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7162,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7415,31 +7417,31 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912873</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K42" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L42" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M42" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N42" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O42" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1204.173545517909</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.173545517909</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1204.173545517909</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>770.3988006762045</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>342.5313710854123</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>342.5313710854123</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>53.40121652862856</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>53.40121652862856</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>632.7278666362198</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>632.7278666362198</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>632.7278666362198</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1293.567921177998</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.408952615265</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2586.408952615265</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2443.61469429213</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2038.759239703164</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2038.759239703164</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1630.473116002817</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>404.0232146552985</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K45" t="n">
-        <v>1058.729261281022</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>1246.54233171619</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.4772326516122</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>568.9155211348371</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>488.5262235414597</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>318.768219792197</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>142.0611657539532</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>142.0611657539532</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933184</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.739356264454</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.949238032415</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434796</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013251</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136787</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.715522056491</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2958513705994</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8057,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>20.13097499434639</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8146,7 +8148,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8216,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O5" t="n">
-        <v>640.5448952297625</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8456,10 +8458,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>112.1603739174598</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,7 +8695,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9164,22 +9166,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L17" t="n">
-        <v>640.5448952297621</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,22 +9403,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9963,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10121,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352456</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10355,16 +10357,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>801.4298400828734</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10428,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>288.735183296506</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11063,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11458,7 +11460,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645587</v>
@@ -22547,13 +22549,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22564,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>15.51714675525943</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>200.6961016449503</v>
       </c>
     </row>
     <row r="3">
@@ -22717,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.7958207444081</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>223.1369608195776</v>
       </c>
     </row>
     <row r="5">
@@ -22790,19 +22792,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>184.3625800473345</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>318.6443601651362</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22954,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>107.2592358276476</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -23030,7 +23032,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>159.1288451173901</v>
+        <v>396.7649608365363</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23069,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23230,10 +23232,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U10" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23312,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>20.65715302831029</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>311.4284802175718</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40.159301235573</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>273.4480291992468</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23552,7 +23554,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>231.8807726716854</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23735,19 +23737,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>355.8507627981167</v>
+        <v>126.4142163579345</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -23792,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>369.0353499799953</v>
       </c>
     </row>
     <row r="21">
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>113.8761173587615</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>217.6244648256088</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473639.3861365042</v>
+        <v>473639.3861365043</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473639.3861365042</v>
+        <v>473639.3861365043</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473639.3861365042</v>
+        <v>473639.3861365043</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737868.0513685694</v>
+        <v>473639.3861365043</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737868.0513685693</v>
+        <v>737868.0513685694</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737868.0513685693</v>
+        <v>737868.0513685694</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737868.0513685694</v>
+        <v>737868.0513685693</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737868.0513685694</v>
+        <v>737868.0513685693</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>737868.0513685694</v>
+        <v>737868.0513685693</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473639.3861365042</v>
+        <v>737868.0513685693</v>
       </c>
     </row>
   </sheetData>
@@ -26329,7 +26331,7 @@
         <v>126821.7106717144</v>
       </c>
       <c r="H2" t="n">
-        <v>197571.5940515071</v>
+        <v>126821.7106717144</v>
       </c>
       <c r="I2" t="n">
         <v>197571.5940515071</v>
@@ -26353,7 +26355,7 @@
         <v>197571.5940515071</v>
       </c>
       <c r="P2" t="n">
-        <v>126821.7106717144</v>
+        <v>197571.5940515071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>162410.0000642068</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9144.033827297713</v>
+        <v>9144.033827297715</v>
       </c>
       <c r="C4" t="n">
         <v>9144.033827297713</v>
@@ -26430,10 +26432,10 @@
         <v>9144.033827297713</v>
       </c>
       <c r="G4" t="n">
+        <v>9144.033827297715</v>
+      </c>
+      <c r="H4" t="n">
         <v>9144.033827297713</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26457,7 +26459,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>9144.033827297713</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180234.5463013858</v>
+        <v>-180234.5463013859</v>
       </c>
       <c r="C6" t="n">
-        <v>43465.15228265902</v>
+        <v>43465.15228265901</v>
       </c>
       <c r="D6" t="n">
-        <v>43465.15228265902</v>
+        <v>43465.15228265901</v>
       </c>
       <c r="E6" t="n">
+        <v>77092.75228265901</v>
+      </c>
+      <c r="F6" t="n">
         <v>77092.75228265903</v>
       </c>
-      <c r="F6" t="n">
-        <v>77092.752282659</v>
-      </c>
       <c r="G6" t="n">
-        <v>77092.752282659</v>
+        <v>77092.75228265901</v>
       </c>
       <c r="H6" t="n">
-        <v>-59176.42790285357</v>
+        <v>77092.75228265901</v>
       </c>
       <c r="I6" t="n">
-        <v>105608.1498752219</v>
+        <v>-56801.85018898488</v>
       </c>
       <c r="J6" t="n">
-        <v>-69043.1988424842</v>
+        <v>-69043.19884248421</v>
       </c>
       <c r="K6" t="n">
         <v>105608.149875222</v>
       </c>
       <c r="L6" t="n">
-        <v>105608.1498752219</v>
+        <v>105608.149875222</v>
       </c>
       <c r="M6" t="n">
         <v>105608.1498752219</v>
       </c>
       <c r="N6" t="n">
-        <v>105608.1498752219</v>
+        <v>105608.149875222</v>
       </c>
       <c r="O6" t="n">
-        <v>105608.1498752219</v>
+        <v>105608.149875222</v>
       </c>
       <c r="P6" t="n">
-        <v>77092.752282659</v>
+        <v>105608.149875222</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="F4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="G4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>610.745296776888</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>20.13097499434639</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34866,10 +34868,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O5" t="n">
-        <v>640.5448952297625</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35176,10 +35178,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>112.1603739174598</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P11" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951400973</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L17" t="n">
-        <v>640.5448952297621</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>345.0097498941939</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36683,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352456</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37075,16 +37077,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>801.4298400828734</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37312,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>806.0025231116373</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>288.735183296506</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37783,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>667.515206607857</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>524.2002727610084</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>255097.0993330304</v>
+        <v>252299.2529720676</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>76.65947574070954</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.5071608183927</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.008513159455165</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>104.9443951297481</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>149.0244198570051</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480022953</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>26.823794458348</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>247.8602619866763</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1308,7 +1308,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>429.8664053013989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>235.972926627843</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>130.6767931660343</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1609,10 +1609,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>127.1100078938263</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>45.65591210662905</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>175.6226554202651</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>305.1364706193654</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2089,19 +2089,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>369.2659145630365</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.16791248334784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225758</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>56.95997704284581</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2812,7 +2812,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3283,10 +3283,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225719</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>163.6395778340019</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1640.500119716325</v>
+        <v>1430.619677657207</v>
       </c>
       <c r="C2" t="n">
-        <v>1640.500119716325</v>
+        <v>992.4772048406303</v>
       </c>
       <c r="D2" t="n">
-        <v>1204.590334890769</v>
+        <v>992.4772048406303</v>
       </c>
       <c r="E2" t="n">
-        <v>770.8155900490646</v>
+        <v>558.7024599989254</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>130.8350304081332</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>130.8350304081332</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2582.420166112559</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4372,10 +4372,10 @@
         <v>2265.205371842461</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.500119716325</v>
+        <v>1856.919248142115</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>966.8681021663376</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>794.3063906495626</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>628.4283978510853</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>458.6703941018225</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>281.9633400635787</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>1158.686720885325</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>448.5358106104104</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C5" t="n">
-        <v>448.5358106104104</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D5" t="n">
-        <v>448.5358106104104</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E5" t="n">
-        <v>448.5358106104104</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2582.420166112559</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.119422805321</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.119422805321</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="W5" t="n">
-        <v>1702.263968216354</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="X5" t="n">
-        <v>1283.121504795665</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y5" t="n">
-        <v>874.8353810953182</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F7" t="n">
-        <v>56.57247054885377</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>771.4407337121276</v>
+        <v>1180.255776660564</v>
       </c>
       <c r="C8" t="n">
-        <v>771.4407337121276</v>
+        <v>1180.255776660564</v>
       </c>
       <c r="D8" t="n">
-        <v>771.4407337121276</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E8" t="n">
-        <v>771.4407337121276</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F8" t="n">
         <v>744.3459918350084</v>
@@ -4798,10 +4798,10 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
@@ -4810,46 +4810,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.72477542213</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1598.869320833164</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1179.726857412474</v>
+        <v>2014.841470845819</v>
       </c>
       <c r="Y8" t="n">
-        <v>771.4407337121276</v>
+        <v>1606.555347145472</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2545.844385276825</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.41138452993</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1607.706416878496</v>
+        <v>1178.554482038442</v>
       </c>
       <c r="C11" t="n">
-        <v>1607.706416878496</v>
+        <v>1178.554482038442</v>
       </c>
       <c r="D11" t="n">
-        <v>1171.796632052941</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E11" t="n">
-        <v>1171.796632052941</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F11" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G11" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I11" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J11" t="n">
         <v>488.6559039815464</v>
@@ -5047,22 +5047,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L11" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M11" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N11" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O11" t="n">
-        <v>2123.562040472834</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P11" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R11" t="n">
         <v>2670.060826431428</v>
@@ -5074,19 +5074,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U11" t="n">
-        <v>2431.704334888153</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V11" t="n">
-        <v>2431.704334888153</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W11" t="n">
-        <v>2026.848880299186</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X11" t="n">
-        <v>1607.706416878496</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y11" t="n">
-        <v>1607.706416878496</v>
+        <v>1178.554482038442</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H12" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I12" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q12" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R12" t="n">
         <v>1716.640978007438</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C13" t="n">
-        <v>790.1396618744722</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D13" t="n">
-        <v>624.2616690759949</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E13" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F13" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G13" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H13" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I13" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J13" t="n">
         <v>139.9809016933184</v>
@@ -5226,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T13" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U13" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V13" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W13" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X13" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>883.0832668690169</v>
+        <v>1355.737693134413</v>
       </c>
       <c r="C14" t="n">
-        <v>883.0832668690169</v>
+        <v>917.5952203178363</v>
       </c>
       <c r="D14" t="n">
-        <v>883.0832668690169</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="E14" t="n">
-        <v>883.0832668690169</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F14" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G14" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H14" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I14" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J14" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L14" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M14" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N14" t="n">
-        <v>714.241271070407</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O14" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P14" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q14" t="n">
-        <v>2582.420166112559</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R14" t="n">
         <v>2670.060826431428</v>
@@ -5308,22 +5308,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V14" t="n">
-        <v>2541.666879063927</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W14" t="n">
-        <v>2136.81142447496</v>
+        <v>1782.037263619321</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.668961054271</v>
+        <v>1782.037263619321</v>
       </c>
       <c r="Y14" t="n">
-        <v>1309.382837353925</v>
+        <v>1782.037263619321</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H15" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I15" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J15" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>740.3049442308646</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L15" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M15" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N15" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O15" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P15" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q15" t="n">
         <v>1599.468199913098</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J16" t="n">
         <v>139.9809016933184</v>
@@ -5463,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1480.015289244219</v>
+        <v>781.090633274849</v>
       </c>
       <c r="C17" t="n">
-        <v>1480.015289244219</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="D17" t="n">
-        <v>1171.796632052941</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E17" t="n">
-        <v>1171.796632052941</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F17" t="n">
-        <v>743.9292024621484</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G17" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J17" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K17" t="n">
-        <v>714.241271070407</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L17" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M17" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N17" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O17" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5545,22 +5545,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T17" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U17" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V17" t="n">
-        <v>2307.443876365255</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W17" t="n">
-        <v>2307.443876365255</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X17" t="n">
-        <v>1888.301412944566</v>
+        <v>1366.773378611827</v>
       </c>
       <c r="Y17" t="n">
-        <v>1480.015289244219</v>
+        <v>958.4872549114804</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J18" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K18" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L18" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M18" t="n">
-        <v>1375.081325612186</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N18" t="n">
-        <v>1375.081325612186</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O18" t="n">
-        <v>1716.640978007438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P18" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q18" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R18" t="n">
         <v>1716.640978007438</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.4772326516127</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>568.9155211348376</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>403.0375283363603</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>233.2795245870976</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>56.57247054885377</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J19" t="n">
         <v>139.9809016933184</v>
@@ -5697,28 +5697,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R19" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2489.401636434797</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>2243.522190013252</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>1965.089189266357</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>1678.133681136788</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>1406.107276723079</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>1160.715522056492</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>933.2958513705998</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1789.095648603258</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="C20" t="n">
-        <v>1350.953175786681</v>
+        <v>1264.121495399777</v>
       </c>
       <c r="D20" t="n">
-        <v>915.0433909611256</v>
+        <v>828.2117105742211</v>
       </c>
       <c r="E20" t="n">
-        <v>481.2686461194209</v>
+        <v>828.2117105742211</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40121652862857</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
         <v>488.6559039815464</v>
@@ -5758,46 +5758,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M20" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N20" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O20" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V20" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W20" t="n">
-        <v>2670.060826431428</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X20" t="n">
-        <v>2250.918363010739</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="Y20" t="n">
-        <v>2215.395219088166</v>
+        <v>1702.263968216353</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
         <v>79.46488968908616</v>
@@ -5834,19 +5834,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
         <v>1058.729261281022</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>922.1364226482442</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C22" t="n">
-        <v>749.5747111314691</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D22" t="n">
-        <v>583.6967183329918</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E22" t="n">
-        <v>413.9387145837291</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F22" t="n">
-        <v>237.2316605454853</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G22" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
         <v>139.9809016933184</v>
@@ -5937,25 +5937,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T22" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U22" t="n">
-        <v>2145.748379262989</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V22" t="n">
-        <v>1858.792871133419</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W22" t="n">
-        <v>1586.766466719711</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X22" t="n">
-        <v>1341.374712053123</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.955041367231</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3205.876241053794</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3148.340910707485</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3148.340910707485</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2978.582906958223</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2801.875852919979</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2636.284577945807</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>4953.800644836977</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4707.921198415433</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4429.488197668538</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4142.532689538969</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>3870.506285125261</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3625.114530458673</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3397.694859772781</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6451,49 +6451,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
         <v>4550.100609912873</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6709,7 +6709,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6946,43 +6946,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>388.1086717343214</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812565</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812565</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812565</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812565</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812565</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7654,28 +7654,28 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
         <v>4809.322912595856</v>
@@ -7724,31 +7724,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1246.54233171619</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,22 +8054,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8458,10 +8458,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>226.6534083847598</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,7 +8695,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>316.3899266744752</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>640.544895229762</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10357,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>806.0025231116373</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>288.735183296506</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965068</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>209.5793772705064</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>200.6961016449503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.146865729424778</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>223.1369608195776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>318.6443601651362</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>209.9663607085066</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444076</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>396.7649608365363</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>167.0907767998061</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23229,10 +23229,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.684281675900991</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>20.65715302831029</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>40.159301235573</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23548,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>231.8807726716854</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>355.150987936448</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>246.4139193597936</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>126.4142163579345</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>54.32284073184786</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.0353499799953</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142716</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>113.8761173587615</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.446375214272</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473639.3861365043</v>
+        <v>473639.3861365042</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473639.3861365043</v>
+        <v>473639.3861365042</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473639.3861365043</v>
+        <v>473639.3861365042</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473639.3861365043</v>
+        <v>473639.3861365041</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737868.0513685693</v>
+        <v>737868.0513685694</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737868.0513685693</v>
+        <v>737868.0513685694</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737868.0513685693</v>
+        <v>737868.0513685694</v>
       </c>
     </row>
   </sheetData>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>162410.0000642068</v>
+        <v>162410.0000642069</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9144.033827297715</v>
+        <v>9144.033827297713</v>
       </c>
       <c r="C4" t="n">
         <v>9144.033827297713</v>
@@ -26429,10 +26429,10 @@
         <v>9144.033827297713</v>
       </c>
       <c r="F4" t="n">
+        <v>9144.033827297711</v>
+      </c>
+      <c r="G4" t="n">
         <v>9144.033827297713</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9144.033827297715</v>
       </c>
       <c r="H4" t="n">
         <v>9144.033827297713</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="F5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="G5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180234.5463013859</v>
+        <v>-180729.4365299671</v>
       </c>
       <c r="C6" t="n">
-        <v>43465.15228265901</v>
+        <v>42970.26205407775</v>
       </c>
       <c r="D6" t="n">
-        <v>43465.15228265901</v>
+        <v>42970.26205407775</v>
       </c>
       <c r="E6" t="n">
-        <v>77092.75228265901</v>
+        <v>76597.86205407775</v>
       </c>
       <c r="F6" t="n">
-        <v>77092.75228265903</v>
+        <v>76597.86205407778</v>
       </c>
       <c r="G6" t="n">
-        <v>77092.75228265901</v>
+        <v>76597.86205407775</v>
       </c>
       <c r="H6" t="n">
-        <v>77092.75228265901</v>
+        <v>76597.86205407773</v>
       </c>
       <c r="I6" t="n">
-        <v>-56801.85018898488</v>
+        <v>-56825.07452836762</v>
       </c>
       <c r="J6" t="n">
-        <v>-69043.19884248421</v>
+        <v>-69066.42318186683</v>
       </c>
       <c r="K6" t="n">
-        <v>105608.149875222</v>
+        <v>105584.9255358393</v>
       </c>
       <c r="L6" t="n">
-        <v>105608.149875222</v>
+        <v>105584.9255358393</v>
       </c>
       <c r="M6" t="n">
-        <v>105608.1498752219</v>
+        <v>105584.9255358393</v>
       </c>
       <c r="N6" t="n">
-        <v>105608.149875222</v>
+        <v>105584.9255358393</v>
       </c>
       <c r="O6" t="n">
-        <v>105608.149875222</v>
+        <v>105584.9255358393</v>
       </c>
       <c r="P6" t="n">
-        <v>105608.149875222</v>
+        <v>105584.9255358393</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="F4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="G4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,22 +34774,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35178,10 +35178,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>226.6534083847598</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,7 +35415,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L11" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>316.3899266744752</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>345.0097498941939</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35658,19 +35658,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P14" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>640.544895229762</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P17" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>345.0097498941939</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37077,10 +37077,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>806.0025231116373</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>288.735183296506</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>288.7351832965068</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
       <c r="Q42" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
